--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_34.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_34.xlsx
@@ -508,148 +508,148 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_1</t>
+          <t>model_1_34_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999215683526355</v>
+        <v>0.9366623077889862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8290258141170495</v>
+        <v>0.7386526992965183</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8218776185621212</v>
+        <v>0.64612674231763</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998756108249235</v>
+        <v>0.9002184668559116</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003264738260312873</v>
+        <v>0.2636448347441182</v>
       </c>
       <c r="G2" t="n">
-        <v>1.143305168263027</v>
+        <v>1.747630603197849</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6371334302741997</v>
+        <v>1.265784123979423</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005122933247168044</v>
+        <v>0.3862444793475698</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05007764783393464</v>
+        <v>1.274663009769294</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01806858671925636</v>
+        <v>0.5134635671049292</v>
       </c>
       <c r="L2" t="n">
-        <v>1.005019625431331</v>
+        <v>0.9137529297552153</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0183531488981244</v>
+        <v>0.5215501050115725</v>
       </c>
       <c r="N2" t="n">
-        <v>146.0543215555118</v>
+        <v>36.66630480906824</v>
       </c>
       <c r="O2" t="n">
-        <v>287.3894940987282</v>
+        <v>73.63088839729407</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_2</t>
+          <t>model_1_34_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999224281868395</v>
+        <v>0.9366911679210607</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8290217694574851</v>
+        <v>0.7385073025861117</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8218699036284052</v>
+        <v>0.6450564407994566</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998757325353139</v>
+        <v>0.8997762718257719</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0003228947432023442</v>
+        <v>0.2635247036738843</v>
       </c>
       <c r="G3" t="n">
-        <v>1.143332214920158</v>
+        <v>1.748602871669828</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6371610261447642</v>
+        <v>1.269612530450282</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000511792063891217</v>
+        <v>0.3879561727221318</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04986294745801631</v>
+        <v>1.274606086370837</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01796927219456437</v>
+        <v>0.5133465726718006</v>
       </c>
       <c r="L3" t="n">
-        <v>1.004964596042271</v>
+        <v>0.9137922286584655</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01825227026894662</v>
+        <v>0.5214312680330736</v>
       </c>
       <c r="N3" t="n">
-        <v>146.0763683205763</v>
+        <v>36.66721632662424</v>
       </c>
       <c r="O3" t="n">
-        <v>287.4115408637927</v>
+        <v>73.63179991485006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_4</t>
+          <t>model_1_34_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999278951638118</v>
+        <v>0.9367974322337983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8290113284269714</v>
+        <v>0.7377976761602977</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8220668201154169</v>
+        <v>0.6399239005053581</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998860115328231</v>
+        <v>0.8975647725397515</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0003001383056043533</v>
+        <v>0.2630823756351933</v>
       </c>
       <c r="G4" t="n">
-        <v>1.143402034139279</v>
+        <v>1.753348146846776</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6364566672885974</v>
+        <v>1.287971329480487</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004694583012829967</v>
+        <v>0.3965166684711096</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04449996291822168</v>
+        <v>1.274340115114533</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01732450015453125</v>
+        <v>0.5129155638457399</v>
       </c>
       <c r="L4" t="n">
-        <v>1.004614709516048</v>
+        <v>0.9139369289992147</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01759734371381855</v>
+        <v>0.5209934712488532</v>
       </c>
       <c r="N4" t="n">
-        <v>146.2225343417267</v>
+        <v>36.67057616100624</v>
       </c>
       <c r="O4" t="n">
-        <v>287.5577068849431</v>
+        <v>73.63515974923206</v>
       </c>
     </row>
     <row r="5">
@@ -659,95 +659,95 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999255476687567</v>
+        <v>0.9368571835781292</v>
       </c>
       <c r="C5" t="n">
-        <v>0.828993929672408</v>
+        <v>0.7369373270531375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8217894046222265</v>
+        <v>0.6342117525754127</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998794894505155</v>
+        <v>0.8949429318457516</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003099098164415527</v>
+        <v>0.2628336590692439</v>
       </c>
       <c r="G5" t="n">
-        <v>1.143518379691159</v>
+        <v>1.759101305287899</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6374489664222648</v>
+        <v>1.308403351416534</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004963193141272061</v>
+        <v>0.4066655553630755</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04731824494907592</v>
+        <v>1.274039789804104</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01760425563440706</v>
+        <v>0.5126730528019235</v>
       </c>
       <c r="L5" t="n">
-        <v>1.004764949199568</v>
+        <v>0.9140182925319206</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01788150506284952</v>
+        <v>0.5207471408985188</v>
       </c>
       <c r="N5" t="n">
-        <v>146.1584584350273</v>
+        <v>36.67246784384592</v>
       </c>
       <c r="O5" t="n">
-        <v>287.4936309782437</v>
+        <v>73.63705143207174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_0</t>
+          <t>model_1_34_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999108359286764</v>
+        <v>0.9368613825955387</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8289827441809948</v>
+        <v>0.7367977901132055</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8218393661550211</v>
+        <v>0.6333038507699973</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998798752539509</v>
+        <v>0.8945118590537471</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003711478272830063</v>
+        <v>0.2628161805471766</v>
       </c>
       <c r="G6" t="n">
-        <v>1.143593177123743</v>
+        <v>1.760034389447734</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6372702569163946</v>
+        <v>1.311650863531334</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004947303935119786</v>
+        <v>0.4083341956501338</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0534484419417563</v>
+        <v>1.273983061971919</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01926519730713927</v>
+        <v>0.5126560060578405</v>
       </c>
       <c r="L6" t="n">
-        <v>1.005706500564713</v>
+        <v>0.9140240103428613</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01956860490659473</v>
+        <v>0.5207298256852569</v>
       </c>
       <c r="N6" t="n">
-        <v>145.7978202368621</v>
+        <v>36.67260084890561</v>
       </c>
       <c r="O6" t="n">
-        <v>287.1329927800785</v>
+        <v>73.63718443713144</v>
       </c>
     </row>
     <row r="7">
@@ -757,144 +757,144 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999342843581653</v>
+        <v>0.9368641591127189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8288356174074146</v>
+        <v>0.7366242154244822</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8226354686634331</v>
+        <v>0.6324079265843421</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998901120556312</v>
+        <v>0.8940828555520812</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002735431135364835</v>
+        <v>0.2628046232202899</v>
       </c>
       <c r="G7" t="n">
-        <v>1.14457701453613</v>
+        <v>1.761195084190464</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6344226444044806</v>
+        <v>1.314855532394754</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004525704132403268</v>
+        <v>0.4099948259182611</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04010333431540852</v>
+        <v>1.273927463489767</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01653913883902313</v>
+        <v>0.5126447339242742</v>
       </c>
       <c r="L7" t="n">
-        <v>1.004205801077418</v>
+        <v>0.914027791132213</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01679961374266448</v>
+        <v>0.520718376026855</v>
       </c>
       <c r="N7" t="n">
-        <v>146.4081026243894</v>
+        <v>36.67268880072796</v>
       </c>
       <c r="O7" t="n">
-        <v>287.7432751676058</v>
+        <v>73.63727238895378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_7</t>
+          <t>model_1_34_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999358570329864</v>
+        <v>0.9368655310324219</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8287928108487052</v>
+        <v>0.7365610088798156</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8227520114769642</v>
+        <v>0.6315240113766045</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998868051502311</v>
+        <v>0.8936558571975415</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002669968126084562</v>
+        <v>0.2627989125679002</v>
       </c>
       <c r="G8" t="n">
-        <v>1.144863262191327</v>
+        <v>1.761617746645689</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6340057775180206</v>
+        <v>1.318017245840482</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004661898102728009</v>
+        <v>0.41164769445951</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03940612649744585</v>
+        <v>1.273871625527923</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01634003710547979</v>
+        <v>0.5126391640987842</v>
       </c>
       <c r="L8" t="n">
-        <v>1.004105149888872</v>
+        <v>0.9140296592781915</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01659737635584653</v>
+        <v>0.5207127184821813</v>
       </c>
       <c r="N8" t="n">
-        <v>146.4565476748626</v>
+        <v>36.67273226049945</v>
       </c>
       <c r="O8" t="n">
-        <v>287.791720218079</v>
+        <v>73.63731584872527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_6</t>
+          <t>model_1_34_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999935188926127</v>
+        <v>0.9368493872712084</v>
       </c>
       <c r="C9" t="n">
-        <v>0.828784064792065</v>
+        <v>0.7355525217855314</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8227844617309662</v>
+        <v>0.6264594632411313</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998867675241201</v>
+        <v>0.8911438845390054</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002697778252468645</v>
+        <v>0.262866111404939</v>
       </c>
       <c r="G9" t="n">
-        <v>1.144921747112351</v>
+        <v>1.768361504488824</v>
       </c>
       <c r="H9" t="n">
-        <v>0.633889704841029</v>
+        <v>1.336132840861697</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004663447723542975</v>
+        <v>0.4213712930158735</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03998165921990436</v>
+        <v>1.273490185279862</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01642491477137292</v>
+        <v>0.5127047019532188</v>
       </c>
       <c r="L9" t="n">
-        <v>1.004147908727873</v>
+        <v>0.9140076762841987</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01668359076013095</v>
+        <v>0.5207792884923095</v>
       </c>
       <c r="N9" t="n">
-        <v>146.4358236143297</v>
+        <v>36.67222091708233</v>
       </c>
       <c r="O9" t="n">
-        <v>287.7709961575462</v>
+        <v>73.63680450530815</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999365757450674</v>
+        <v>0.9368192332617609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8287802064307195</v>
+        <v>0.7348205701340064</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8227061048705704</v>
+        <v>0.6232987436421985</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998866935399708</v>
+        <v>0.8895206397019465</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002640051543835811</v>
+        <v>0.2629916282742808</v>
       </c>
       <c r="G10" t="n">
-        <v>1.144947547992435</v>
+        <v>1.773256068552899</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6341699827872731</v>
+        <v>1.347438551598027</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004666494739958695</v>
+        <v>0.4276547137770887</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03920785611014017</v>
+        <v>1.27324273677793</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01624823542368774</v>
+        <v>0.5128270939354519</v>
       </c>
       <c r="L10" t="n">
-        <v>1.004059152315683</v>
+        <v>0.9139666155053765</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01650412888933428</v>
+        <v>0.5209036080259156</v>
       </c>
       <c r="N10" t="n">
-        <v>146.4790838616566</v>
+        <v>36.67126615793548</v>
       </c>
       <c r="O10" t="n">
-        <v>287.814256404873</v>
+        <v>73.6358497461613</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999356241535118</v>
+        <v>0.9363967868145304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8284615682609903</v>
+        <v>0.7326996557729737</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8229345322509004</v>
+        <v>0.6057469257763772</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998670565371164</v>
+        <v>0.8797475623635623</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002679661796384582</v>
+        <v>0.2647500728888596</v>
       </c>
       <c r="G11" t="n">
-        <v>1.147078282900608</v>
+        <v>1.787438632651037</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6333529112928131</v>
+        <v>1.410220386391196</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005475239188467853</v>
+        <v>0.4654853328229676</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03883366834725287</v>
+        <v>1.270643334436271</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01636967255745997</v>
+        <v>0.5145386991168494</v>
       </c>
       <c r="L11" t="n">
-        <v>1.004120054175246</v>
+        <v>0.9133913692793606</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01662747853657083</v>
+        <v>0.5226421692779426</v>
       </c>
       <c r="N11" t="n">
-        <v>146.4492995615912</v>
+        <v>36.65793803837726</v>
       </c>
       <c r="O11" t="n">
-        <v>287.7844721048076</v>
+        <v>73.62252162660309</v>
       </c>
     </row>
   </sheetData>
